--- a/data/income_statement/3digits/total/279_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/279_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>279-Manufacture of other electrical equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>279-Manufacture of other electrical equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>407568.21981</v>
@@ -968,25 +874,30 @@
         <v>1146178.62744</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1242717.72617</v>
+        <v>1246155.58334</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1454132.65159</v>
+        <v>1468478.38119</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1879822.37665</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2219132.50474</v>
+        <v>2223371.96059</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2421014.46169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2437195.62374</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3201269.335</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>351817.16593</v>
@@ -1007,25 +918,30 @@
         <v>989316.20127</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1050624.11916</v>
+        <v>1053926.08532</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1254799.64412</v>
+        <v>1257044.87074</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1605057.88053</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1837480.76618</v>
+        <v>1841704.19293</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1971670.28875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1987416.34877</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2713361.804</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>52964.58961</v>
@@ -1046,34 +962,39 @@
         <v>146662.55708</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>179633.72982</v>
+        <v>179738.08583</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>179616.3876</v>
+        <v>191592.26479</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>251198.59903</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>358981.6897100001</v>
+        <v>358997.60042</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>417979.73286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>418421.64666</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>455376.855</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2786.464269999999</v>
+        <v>2786.46427</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>3968.11149</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>4571.03965</v>
+        <v>4571.039650000001</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>4758.6452</v>
@@ -1085,28 +1006,33 @@
         <v>10199.86909</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>12459.87719</v>
+        <v>12491.41219</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>19716.61987</v>
+        <v>19841.24566</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>23565.89709</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>22670.04885</v>
+        <v>22670.16724</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>31364.44008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31357.62831</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>32530.676</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>9916.265239999999</v>
+        <v>9916.265240000001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>11789.26749</v>
@@ -1124,10 +1050,10 @@
         <v>28943.76297</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>28187.41599</v>
+        <v>28201.63519</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>81615.65362000001</v>
+        <v>81655.27502</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>101606.97565</v>
@@ -1136,13 +1062,18 @@
         <v>136070.74376</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>150934.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>151091.6194</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>233876.757</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>4707.75005</v>
@@ -1157,13 +1088,13 @@
         <v>8716.384900000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8163.65788</v>
+        <v>8163.657880000001</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>13897.87064</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13041.72008</v>
+        <v>13055.93928</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>29131.82557</v>
@@ -1175,22 +1106,27 @@
         <v>37660.15398</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>32849.70213000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>33006.64904</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>46622.972</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3986.8923</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4924.11761</v>
+        <v>4924.117609999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>6403.994310000001</v>
+        <v>6403.99431</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>5999.27023</v>
@@ -1205,7 +1141,7 @@
         <v>11502.28563</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>48057.94843</v>
+        <v>48097.56983</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>68238.77176999999</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>110776.34552</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>177665.033</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1221.62289</v>
@@ -1253,16 +1194,21 @@
         <v>8294.989030000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>7308.282349999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7308.624839999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>9588.752</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>397651.9545700001</v>
+        <v>397651.95457</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>495989.8245</v>
@@ -1280,37 +1226,42 @@
         <v>1117234.86447</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1214530.31018</v>
+        <v>1217953.94815</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1372516.99797</v>
+        <v>1386823.10617</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1778215.401</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2083061.76098</v>
+        <v>2087301.21683</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2270080.13169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2286104.00434</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2967392.578</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>308926.9969199999</v>
+        <v>308926.99692</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>382870.6103300001</v>
+        <v>382870.61033</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>512986.04932</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>580094.8206</v>
+        <v>580094.8205999999</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>692012.77338</v>
@@ -1319,25 +1270,30 @@
         <v>870817.79675</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>938769.37075</v>
+        <v>941313.90822</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1091463.2001</v>
+        <v>1104012.55905</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1408709.07486</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1579262.39303</v>
+        <v>1582821.19528</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1749747.47931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1762388.28511</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2240644.939</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>213733.79196</v>
@@ -1358,7 +1314,7 @@
         <v>594642.2165099999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>632570.0828300001</v>
+        <v>633421.5753299999</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>786327.67703</v>
@@ -1367,19 +1323,24 @@
         <v>981805.7127499999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1140852.23424</v>
+        <v>1140981.63248</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1322379.45371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1333808.42644</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1747965.297</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>83204.92382</v>
+        <v>83204.92382000001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>78759.73334999999</v>
@@ -1397,25 +1358,30 @@
         <v>219183.50217</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>213585.38415</v>
+        <v>214757.88425</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>233226.03198</v>
+        <v>245775.39093</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>321810.3487</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>346893.81116</v>
+        <v>350299.42113</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>277266.08282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>278415.12911</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>400436.157</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>11551.31335</v>
@@ -1436,25 +1402,30 @@
         <v>55829.93356</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>90276.34489000001</v>
+        <v>90796.88976000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>63708.04066999999</v>
+        <v>63708.04067</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>101637.99974</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>88123.85284000001</v>
+        <v>88128.64688</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>142611.22392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>142674.0107</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>85890.421</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>436.96779</v>
@@ -1466,7 +1437,7 @@
         <v>1422.8566</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>861.68394</v>
+        <v>861.6839399999999</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>1101.02909</v>
@@ -1478,25 +1449,30 @@
         <v>2337.55888</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>8201.450419999999</v>
+        <v>8201.450420000001</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>3455.01367</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3392.49479</v>
+        <v>3411.49479</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>7490.71886</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>6353.064</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>88724.95765000001</v>
+        <v>88724.95765</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>113119.21417</v>
@@ -1514,25 +1490,30 @@
         <v>246417.06772</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>275760.93943</v>
+        <v>276640.03993</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>281053.79787</v>
+        <v>282810.54712</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>369506.32614</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>503799.36795</v>
+        <v>504480.02155</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>520332.65238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>523715.71923</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>726747.639</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>61723.17121</v>
@@ -1541,37 +1522,42 @@
         <v>72182.11579</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>91410.51038000001</v>
+        <v>91410.51037999999</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>107433.18991</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>125964.85596</v>
+        <v>125969.74475</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>148110.5093</v>
+        <v>148114.91003</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>175853.28649</v>
+        <v>176517.72124</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>192695.13407</v>
+        <v>198689.75679</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>228945.42731</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>254996.40587</v>
+        <v>256317.3898</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>293043.48793</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>295656.4754</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>333909.135</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2545.33437</v>
@@ -1583,13 +1569,13 @@
         <v>2923.90474</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5145.73949</v>
+        <v>5145.739489999999</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>7973.403189999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8198.691739999998</v>
+        <v>8198.69174</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>11082.37918</v>
@@ -1601,16 +1587,21 @@
         <v>14106.80236</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>15334.00286</v>
+        <v>15381.20749</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>18357.04267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18374.19172</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>19478.756</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>16462.35052</v>
@@ -1631,25 +1622,30 @@
         <v>48739.42941</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>57994.32122</v>
+        <v>58076.89408</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>61700.01159</v>
+        <v>62272.55868000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>71797.44131000001</v>
+        <v>71797.44130999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>84606.46906999999</v>
+        <v>84621.37132000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>92243.35089000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>93391.94597999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>104708.936</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>42715.48632</v>
@@ -1661,34 +1657,39 @@
         <v>62225.55397</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>69963.49396000001</v>
+        <v>69963.49395999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>77707.98658</v>
+        <v>77712.87537000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>91172.38815</v>
+        <v>91176.78887999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>106776.58609</v>
+        <v>107358.44798</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>116833.15522</v>
+        <v>122255.23085</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>143041.18364</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>155055.93394</v>
+        <v>156314.81099</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>182443.09437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>183890.3377</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>209721.443</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>27001.78644</v>
@@ -1697,37 +1698,42 @@
         <v>40937.09838</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>71168.94502000001</v>
+        <v>71168.94502</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>64539.74099000001</v>
+        <v>64539.74098999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>92269.82467</v>
+        <v>92264.93587999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>98306.55842</v>
+        <v>98302.15768999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>99907.65294</v>
+        <v>100122.31869</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>88358.66379999999</v>
+        <v>84120.79033</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>140560.89883</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>248802.96208</v>
+        <v>248162.63175</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>227289.16445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>228059.2438300001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>392838.504</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>10548.29692</v>
@@ -1751,22 +1757,27 @@
         <v>72119.1335</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>51020.38559999999</v>
+        <v>81554.48387000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>75899.29580000001</v>
+        <v>75899.29579999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>211794.28664</v>
+        <v>211798.57615</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>115321.6382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>115338.9311</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>203677.958</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>197.57049</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2634.01588</v>
@@ -1868,22 +1889,27 @@
         <v>4259.35575</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4925.15722</v>
+        <v>4925.157220000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>6827.09033</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8950.919</v>
+        <v>8955.541800000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>13937.5169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>13938.0123</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8808.348</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>206.40231</v>
@@ -1910,7 +1936,7 @@
         <v>240.5726</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>492.9481999999999</v>
+        <v>492.9482</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>185.72666</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>196.85272</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>89.143</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>180.94509</v>
@@ -1946,7 +1977,7 @@
         <v>597.22236</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>569.1790100000001</v>
+        <v>570.61194</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>232.60277</v>
@@ -1955,13 +1986,18 @@
         <v>554.3360700000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>834.9040500000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>834.90405</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1029.356</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>198.4258</v>
@@ -1976,7 +2012,7 @@
         <v>9091.559499999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>575.2732999999999</v>
+        <v>575.2733000000001</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>641.59202</v>
@@ -1991,22 +2027,27 @@
         <v>1050.53029</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>999.40313</v>
+        <v>999.4031300000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>724.62942</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>724.6294200000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>970.097</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>4217.80053</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6169.08579</v>
+        <v>6169.085789999999</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>13839.10928</v>
@@ -2024,22 +2065,27 @@
         <v>60036.01739</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>36485.49732</v>
+        <v>67000.42082000001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>56692.04075</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>183934.05856</v>
+        <v>183934.49055</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>82275.00734</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>82291.60784</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>172131.513</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1.5</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>847.5153899999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>765.506</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3109.207310000001</v>
+        <v>3109.20731</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>1587.58887</v>
@@ -2135,31 +2191,36 @@
         <v>3621.84075</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>7987.854270000001</v>
+        <v>7987.85427</v>
       </c>
       <c r="I35" s="48" t="n">
         <v>4857.08419</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7195.552340000001</v>
+        <v>7213.29418</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>9786.544260000001</v>
+        <v>9786.544260000002</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>13840.85484</v>
+        <v>13840.08956</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>16307.64189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>16307.83889</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>19883.995</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>6370.49148</v>
+        <v>6370.491480000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>6982.46213</v>
@@ -2177,25 +2238,30 @@
         <v>22941.30153</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>63720.2034</v>
+        <v>63775.0983</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>36269.73546</v>
+        <v>62652.78062</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>77077.34793</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>219321.49758</v>
+        <v>219333.85308</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>102517.33637</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>102518.83763</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>158823.849</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>172.03582</v>
@@ -2222,19 +2288,24 @@
         <v>79.89792</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>99.34873999999999</v>
+        <v>99.34874000000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>592.6309200000001</v>
+        <v>592.6309199999999</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>529.64775</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1326.77</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>279.47432</v>
@@ -2252,7 +2323,7 @@
         <v>1076.96971</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>765.13888</v>
+        <v>765.1388799999999</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>3388.28648</v>
@@ -2267,13 +2338,18 @@
         <v>8398.765660000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5562.99193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5562.991930000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>6377.668</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.03483</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>6523.653</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>5259.51507</v>
@@ -2324,7 +2405,7 @@
         <v>10533.41629</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6798.11954</v>
+        <v>6798.119540000001</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>15636.64706</v>
@@ -2336,22 +2417,27 @@
         <v>57709.39341</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>30579.47783</v>
+        <v>56948.52299</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>71382.22766999999</v>
+        <v>71382.22767000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>204379.87666</v>
+        <v>204392.23216</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>89983.14953</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>89984.65078999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>134764.133</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>809.10245</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1369.039</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>658.4314400000001</v>
+        <v>658.43144</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>649.85814</v>
@@ -2450,10 +2546,10 @@
         <v>1098.12491</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1177.03541</v>
+        <v>1231.93031</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2726.02713</v>
+        <v>2740.02713</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>2619.00707</v>
@@ -2464,17 +2560,22 @@
       <c r="M43" s="48" t="n">
         <v>5632.44471</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>8462.585999999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7087.82755</v>
+        <v>7087.827550000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6733.396629999999</v>
+        <v>6733.39663</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>12715.61904</v>
@@ -2489,25 +2590,30 @@
         <v>22684.35037</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>28079.4166</v>
+        <v>28080.9916</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>33473.82261</v>
+        <v>33584.32387000001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>49483.92011</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>69779.90240000001</v>
+        <v>69787.84322</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>67709.62409</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>68330.51975000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>58821.695</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>6459.94892</v>
@@ -2528,28 +2634,33 @@
         <v>22216.42412</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>27325.73149</v>
+        <v>27327.30649</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>29641.18824</v>
+        <v>29751.6895</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>46874.53923</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>66296.57212</v>
+        <v>66304.51294</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>62323.00951</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>62943.90516999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>54142.863</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>627.87863</v>
+        <v>627.8786299999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>358.37871</v>
@@ -2561,7 +2672,7 @@
         <v>347.58923</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>286.90206</v>
+        <v>286.9020600000001</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>467.92625</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>5386.61458</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>4678.832</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>24091.76433</v>
@@ -2600,34 +2716,39 @@
         <v>58188.60448</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>83508.26195</v>
+        <v>83503.37316000002</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>85189.26027</v>
+        <v>85184.85954</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>80227.16644</v>
+        <v>80385.36229</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>69635.49133000002</v>
+        <v>69438.16971</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>89898.92659</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>171495.84874</v>
+        <v>170839.5116</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>172383.84219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>172548.81755</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>378870.918</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2520.58677</v>
+        <v>2520.586769999999</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>3357.90012</v>
@@ -2642,10 +2763,10 @@
         <v>20521.6846</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5764.496119999999</v>
+        <v>5764.49612</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>32107.00969</v>
+        <v>32114.62972</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>9882.313289999998</v>
@@ -2654,16 +2775,21 @@
         <v>15364.96167</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>14054.71189</v>
+        <v>14091.71225</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>15825.47783</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>15858.29369</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>42928.285</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>12.36403</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>91.645</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2508.22274</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3357.8629</v>
+        <v>3357.862900000001</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>6116.64074</v>
@@ -2723,7 +2854,7 @@
         <v>5685.47441</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>32101.92369</v>
+        <v>32109.54372</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>9879.463489999998</v>
@@ -2732,22 +2863,27 @@
         <v>15327.17085</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>13493.92073</v>
+        <v>13530.92109</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>15815.47783</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>15848.29369</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>42836.64</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3068.84052</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3112.75365</v>
+        <v>3112.753650000001</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>24978.91549</v>
@@ -2762,25 +2898,30 @@
         <v>13895.43787</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8383.11182</v>
+        <v>8383.112160000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>36415.06765</v>
+        <v>36435.0035</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>5619.97659</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>25842.67034</v>
+        <v>26337.27082</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>9057.682870000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>9024.538709999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>13258.428</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>45.96202</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>470.46325</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1280.611</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>139.84864</v>
@@ -2837,10 +2983,10 @@
         <v>53.09718</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>93.12562000000001</v>
+        <v>93.12562</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3151.742670000001</v>
+        <v>3151.74267</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>61.08819</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>1102.08147</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>490.609</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2883.029860000001</v>
+        <v>2883.02986</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>2840.56352</v>
@@ -2879,31 +3030,36 @@
         <v>13441.80485</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3490.78842</v>
+        <v>3490.78876</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>36146.06312999999</v>
+        <v>36165.99898</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>4546.32488</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>25001.89598</v>
+        <v>25496.49646</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>7485.138150000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>7451.993989999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>11487.208</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>23543.51058</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>38229.84955</v>
+        <v>38229.84955000001</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>47258.44431</v>
@@ -2912,37 +3068,42 @@
         <v>61264.64638</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>99757.20494999998</v>
+        <v>99752.31616</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>77058.31852000002</v>
+        <v>77053.91779000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>103951.06431</v>
+        <v>104116.87985</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>43102.73697</v>
+        <v>42885.4795</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>99643.91167</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>159707.89029</v>
+        <v>158593.95303</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>179151.63715</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>179382.57253</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>408540.775</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>5068.327699999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7689.35109</v>
+        <v>7689.351089999999</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>12255.21848</v>
@@ -2966,16 +3127,21 @@
         <v>20203.26623</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>33091.92544</v>
+        <v>33130.94038</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>35112.10478</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>35192.22632</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>66353.58100000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>18475.18288</v>
@@ -2990,28 +3156,31 @@
         <v>49695.40663</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>82825.90626</v>
+        <v>82821.01746999998</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>61274.12157</v>
+        <v>61269.72083999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>86702.37805</v>
+        <v>86868.19359000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>29716.92186</v>
+        <v>29499.66439</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>79440.64543999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>126615.96485</v>
+        <v>125463.01265</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>144039.53237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>144190.34621</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>342187.194</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>359</v>
@@ -3044,28 +3216,31 @@
         <v>348</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>375</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>391</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>